--- a/src/test/resources/HomePage.xlsx
+++ b/src/test/resources/HomePage.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="H1TAGS" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -17,6 +18,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>https://www.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/black-friday-in-deutschland-hoeheres-umsatzplus-als-in-den-usa</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/haben-kryptowaehrungen-als-zahlungsmittel-im-onlinehandel-eine-chance</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/welche-zahlungsverfahren-verkaeufer-ihren-kunden-anbieten-sollten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/b2b-e-commerce-der-richtige-zeitpunkt-fuer-den-einstieg-in-den-digitalen-vertrieb-ist-jetzt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-corona-den-onlinehandel-und-die-welt-veraendert</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-haendler-im-jahr-2020-einen-erfolgreichen-b2b-online-shop-erstellen</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -126,4 +153,73 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/HomePage.xlsx
+++ b/src/test/resources/HomePage.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="H1TAGS" r:id="rId4" sheetId="2"/>
+    <sheet name="H1TAG-CHECK" r:id="rId5" sheetId="3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="196">
   <si>
     <t>https://www.novalnet.de/</t>
   </si>
@@ -42,6 +43,573 @@
   </si>
   <si>
     <t>https://www.novalnet.de/wie-haendler-im-jahr-2020-einen-erfolgreichen-b2b-online-shop-erstellen</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-5-wichtigsten-neuigkeiten-im-oktober-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/frist-laeuft-ab-bis-27-november-auf-e-rechnung-umstellen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/b2b-onlineshops-unter-der-lupe-so-messen-sie-ihren-return-on-investment-roi</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-wichtigsten-neuigkeiten-im-maerz-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-april-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/paypal-bestraft-inaktivitaet-bei-haendlerkonten-mit-gebuehr</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/havarie-im-suezkanal-eigner-der-ever-given-bittet-frachtkunden-zur-kasse</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtsnews-fuer-den-e-commerce-die-wichtigsten-im-mai-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-plugin-als-eine-der-besten-shopware-apps-ausgewaehlt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-und-tink-schliessen-europaweite-partnerschaft-fuer-echtzeit-haendlerzahlungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-stellt-payment-anbindung-fuer-payum-vor</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-juni-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-wichtigsten-neuigkeiten-im-juli-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/mehr-umsatz-mit-hoeheren-autorisierungsraten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/internet-world-expo-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/studie-zur-generation-z</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/open-finance-was-es-fuer-ihr-unternehmen-bedeutet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/moto-zahlungen-im-e-commerce-das-muessen-sie-wissen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-sie-ihre-kundenzufriedenheit-verbessern-und-ihren-umsatz-steigern</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/der-umgang-mit-rueckbuchungen-was-sie-tun-koennen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsdienstleister-novalnet-spendet-an-caritas-fuer-opfer-der-hochwasser-katastrophe</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsdienstleister-novalnet-gewinnt-e-commerce-germany-award-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/payment-komplettloesung-von-novalnet-jetzt-im-sap-store-verfuegbar</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-bringt-generation-12-seiner-zahlungsmodule-auf-den-markt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-als-software-hosted-in-germany-zertifiziert</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wordpress-5-2-4-schliesst-sicherheitsluecken</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-februar-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtsnews-fuer-den-e-commerce-die-4-wichtigsten-im-dezember-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-november-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/die-4-wichtigsten-rechtsnews-fuer-den-e-commerce-im-maerz-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-pci-dss-level-1</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-gewinnt-deloitte-technology-fast-50-award</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/so-unterschiedlich-sind-die-e-commerce-nutzer-in-europa</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/mobile-commerce-weiter-auf-dem-vormarsch</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/e-commerce-day-2015</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/woocommerce-seminar-in-muenchen-2020-07</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/studie-corona-pandemie-beschleunigt-trend-zum-online-kauf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/schonfrist-laeuft-ab-starke-kundenauthentifizierung-in-onlineshops-kommt-umsatzeinbruch-verhindern</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/studie-kaufverhalten-von-jugendlichen-untersucht</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/salesforce-hat-bezahl-plugin-von-novalnet-zertifiziert</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/weniger-kosten-fuer-schnelle-internationale-zahlungsabwicklung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtsnews-fuer-den-e-commerce-die-wichtigsten-im-august-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-sie-abonnements-und-wiederkehrende-zahlungen-verwalten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/warum-ein-endkunden-support-fuer-ihre-zahlungsabwicklung-wichtig-ist</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-die-automatisierte-rechnungsstellung-ihren-zahlungsverkehr-ankurbeln-und-fuer-mehr-wachstum-sorgen-kann</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-entwickelt-java-sdk-fuer-die-zahlungsabwicklung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/was-die-lastschrift-fuer-ihr-unternehmen-bewirken-kann</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsspezialist-novalnet-ist-focus-wachstumschampion-2022</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/6-wege-wie-zahlungsabwicklung-ihre-kundenbindung-verbessern-kann</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/warum-e-commerce-haendler-auf-one-click-zahlungen-setzen-sollten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/one-page-checkouts-und-wie-man-sie-erstellt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/environment-social-governance-esg-novalnet-erhaelt-nachhaltigkeitszertifikat</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-oktober-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/e-commerce-ueberblick-der-wichtigsten-rechtlichen-neuigkeiten-im-september-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-wichtigsten-neuigkeiten-im-november-und-dezember-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/b2b-011-postcast-zum-bezahlen-im-b2b-commerce-mit-emmanuel-kirse-und-christoph-drewes-von-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/6-faktoren-zur-auswahl-der-richtigen-betrugspraevention</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rechtsnews-fuer-den-e-commerce-die-wichtigsten-im-januar-2022</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/e-commerce-boom-einkaufen-im-internet-ist-alltaeglich-geworden</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/sepa-lastschrift-wozu-dient-das-formular-fuer-das-sepa-mandat</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/was-ist-bezahlen-vorkasse</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/zahlung-auf-rechnung-weiter-auf-dem-vormarsch</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/die-wichtigsten-urteile-und-gesetze-im-februar-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/wie-funktioniert-die-zahlung-lastschrift</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/internet-world-expo-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-januar-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-dezember-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-november-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-oktober-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/zahlungstrends-2020-erwarteter-aufschwung-fuer-instant-payment</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/darum-sind-meckernde-kunden-gut</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/novalnet-ist-wachstumschampion-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-september-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/bargeldlos-bezahlen-in-deutschland-trends-und-herausforderungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/was-ist-eine-pci-zertifizierung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-august-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-juni-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-mai-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-februar-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-januar-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-dezember-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-september-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-august-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-juli-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/news/neues-zag-novalnet-ist-zahlungsinstitut-2-0</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/google-pay-startet-in-deutschland</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/ein-monat-dsgvo-deutsche-zweifeln-am-datenschutz</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-mai-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/news/novalnet-ag-zum-sechsten-und-siebten-mal-als-best-of-beim-innovationspreis-it-ausgezeichnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/dsgvo-die-ersten-abmahnungen-sind-da</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-maerz-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/praedikat-best-of-fuer-die-novalnet-ag-beim-industriepreis-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/internet-world-expo-novalnet-zieht-positives-fazit</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/diese-zahlungsarten-bevorzugen-kunden</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-februar-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-januar-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/symfonylive-phantasialand-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/das-war-2017-die-wichtigsten-urteile-und-gesetze-im-jahresrueckblick</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-november-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/ruckblick-die-wichtigsten-urteile-und-gesetze-im-oktober-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/datenschutzgrundverordnung-die-meisten-online-haendler-sind-ahnungslos</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-wichtigsten-urteile-und-gesetze-juli-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/niedrigzinspolitik-macht-investitionen-am-kapitalmarkt-so-attraktiv</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/wer-kauft-in-welchem-land-wann-online-ein</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/recap-omlive-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/mechantday-recab</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/rueckblick-die-wichtigsten-urteile-und-gesetze-im-mai-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme/worauf-ist-bei-der-auswahl-einer-cloud-erp-lousung-achten-sollten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/innovationspreis-it-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/achte-e-commerce-day</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/masterindex-von-mastercard</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-april-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rueckblick-die-wichtigsten-urteile-und-gesetze-im-juli-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-maerz-2019</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-november-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-juni-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-april-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/online-shopping-per-smartphone-immer-beliebter</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/kredit-fuer-warenkauf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/rueckblick-die-wichtigsten-urteile-und-gesetze-im-oktober-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/symfonylive-in-berlin-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/news/novalnet-ist-wachstumschampion-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/news/novalnet-ergaenzt-sein-portfolio-um-barzahlmethode</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marktplatz-haendler-aufgepasst-umsatzsteuer-erfassungsbescheinigungen-einreichen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/news/novalnet-erhaelt-guetesiegel-software-hosted-in-germany</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/omlive</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-februar-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/merchantday</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/welche-bezahlverfahren-jeder-onlineshop-anbieten-sollte</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme/interview-mit-erp-news</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/studie-zum-grenzueberschreitenden-handel</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/zufriedenheit-im-online-handel</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/im-e-commerce-kommt-es-auf-personalisierung-an</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/novalnet-uebernimmt-zahlungsabwicklung-fuer-testia</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/campixx-week-berlin</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/symfony-live-cologne-2017</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/internet-kauufer-entscheiden-nach-kundenbewertungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/konkurrenz-fuer-google-shopping-die-neue-hopping-suchmaschinetrillr</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/deutschen-finden-mobile-payment-sinnlos</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/wie-sieht-der-handel-derzukunft-aus</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/link-auf-die-os-plattform-sollte-klickbar-sein</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/online-haendler-setzen-auf-personalisierte-shops</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/automatischezahlungserinnerung-per-post</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/senken-den-umsatz-im-online-handel-beschaedigte-ruecksendungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/noch-mehr-sicherheit-mit-dem-url-shortener-der-novalnet-ag</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/mehr-conversion-durch-die-responsive-zahlungsseite-der-novalnet-ag</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/barzahlung-bei-abholung-jetzt-bei-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/risikoueberpruefung-fuer-jeden-kunden</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/video-content-wird-im-b2b-e-commerce-immer-wichtiger</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-september-2016</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/umfrage-des-haendlerbundes-zeigt-kundenservice-nimmt-einen-hohen-stellenwert-ein</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/sem/direkt-in-der-google-suche-kaufen-mit-shop-look</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/wachstum-von-45-prozent-mobile-commerce-steigt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/treffpunkt-ecommerce-koeln-september-2016</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-undgesetze-im-juli-2016</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studie-thema-instant-payments</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/kaufen-nur-bei-passender-zahlungsmethode</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/studie-optimizelytrends-im-online-shopping</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/deutsche-top-stationaerhaendler-im-vergleich-zu-solchen-im-ausland</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/neuer-ratgeber-zum-thema-logistik-fuer-online-haendler</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/meinung-deutscher-haendler-zum-internationalen-e-commerce</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/shoppen-im-internet-so-wird-deutschland-gestoebert</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/ratenzahlung-von-paypal</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/jtl-connect-2016</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme/shop-systeme/oxid-launch-von-eshop-5-3</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/onlinehaendler-bei-ebay-amazon-und-rakuten-im-urlaub-was-ist-zu-tun</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/behinderung-von-sofort-ueberweisung-ist-nicht-erlaubt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/die-eu-kommission-will-ueberwachung-von-virtuellen-waehrungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme/neues-plugin-wordpress-events-manager</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/seo/internationale-expansion-von-onlineshops-das-sollten-shopbetreiber-wissen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-juni-2016</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/studie-erfolgsmodelle-im-e-commerce</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/filter-funktion-erleichtert-die-shopping-suche-bei-google</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/treffpunkt-e-commerce-muenchen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges/lieferroboter-im-test-bei-metro</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme/update-payment-moduls-cosmoshop</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-wichtige-urteile-und-gesetze-im-mai-2016</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/news/update-des-payment-moduls-fuer-randshop</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/die-eu-kommission-strebt-guenstigeres-online-shoppen-der-eu</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien/online-haendler-wollen-laut-studie-des-haendlerbundes-versandkosten-sparen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile/rueckblick-die-wichtigsten-urteile-und-gesetze-im-april-2016</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/etail-2016-omni-channel-wachstum-im-fokus</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/11-payment-kongress-frankfurt-am-main</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme/shop-systeme/shopify-der-mietshop-fuer-einsteiger-und-experten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/etail-2016-feinstes-know-how-aus-dem-e-commerce</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/treffpunkt-e-commerce-kommt-im-februar-nach-hamburg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events/die-campixxweek-ist-wieder-da</t>
   </si>
 </sst>
 </file>
@@ -222,4 +790,2294 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>